--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\PycharmProjects\CalculadoraCerchas\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean7\Documents\2025-a\Analisis Matricial Estructuras\Calculadora-Cerchas-Corregido\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EE28A1-0999-4BA6-A868-314A994A4315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D1CE1-08F3-457F-A5AF-13F75DD412FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="11010" windowHeight="12885" firstSheet="2" activeTab="3" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementos" sheetId="3" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +878,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -935,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean7\Documents\2025-a\Analisis Matricial Estructuras\Calculadora-Cerchas-Corregido\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D1CE1-08F3-457F-A5AF-13F75DD412FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5521B8B-5908-4D49-BDF0-207029410693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="11010" windowHeight="12885" firstSheet="2" activeTab="3" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="11010" windowHeight="12885" firstSheet="2" activeTab="4" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementos" sheetId="3" r:id="rId1"/>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ADB904-29E7-468C-9044-A9315EE87C4A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,10 +959,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED023E19-6C40-4444-B782-2C29E3B94B11}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,6 +1034,20 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>-10</v>
       </c>
     </row>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean7\Documents\2025-a\Analisis Matricial Estructuras\Calculadora-Cerchas-Corregido\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5521B8B-5908-4D49-BDF0-207029410693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FBC59E-B6D7-43F1-8F33-51272F5556C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="11010" windowHeight="12885" firstSheet="2" activeTab="4" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="11010" windowHeight="12885" firstSheet="1" activeTab="2" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementos" sheetId="3" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E1F06C-A87F-45D7-8D75-0575F1BF82DF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED023E19-6C40-4444-B782-2C29E3B94B11}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean7\Documents\2025-a\Analisis Matricial Estructuras\Calculadora-Cerchas-Corregido\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FBC59E-B6D7-43F1-8F33-51272F5556C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D7D8EB-3BF7-43ED-812B-D1F48DCA463F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="11010" windowHeight="12885" firstSheet="1" activeTab="2" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementos" sheetId="3" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0AEB2F-FBF5-4B25-A985-03D41A1E807E}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E1F06C-A87F-45D7-8D75-0575F1BF82DF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean7\Documents\2025-a\Analisis Matricial Estructuras\Calculadora-Cerchas-Corregido\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D7D8EB-3BF7-43ED-812B-D1F48DCA463F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5A6F1-4208-4928-AE4E-5256B17C7FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="5" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementos" sheetId="3" r:id="rId1"/>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0AEB2F-FBF5-4B25-A985-03D41A1E807E}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,92 +962,92 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>-10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>-10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>-10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>-10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>-10</v>
       </c>
     </row>
@@ -1060,79 +1060,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88FFCBC-CADB-4BE8-A2F4-8F5C5886CB8B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
     </row>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean7\Documents\2025-a\Analisis Matricial Estructuras\Calculadora-Cerchas-Corregido\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5A6F1-4208-4928-AE4E-5256B17C7FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0FACBD-D424-4545-985D-293459857FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="5" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
   </bookViews>
@@ -41,14 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>DIM</t>
   </si>
   <si>
-    <t>EA</t>
-  </si>
-  <si>
     <t>Conectiv_i</t>
   </si>
   <si>
@@ -83,14 +80,58 @@
   </si>
   <si>
     <t>PROPS</t>
+  </si>
+  <si>
+    <t>Iy (cm^4)</t>
+  </si>
+  <si>
+    <t>Iz (cm^4)</t>
+  </si>
+  <si>
+    <t>vx</t>
+  </si>
+  <si>
+    <t>vy</t>
+  </si>
+  <si>
+    <t>vz</t>
+  </si>
+  <si>
+    <t>ϑx</t>
+  </si>
+  <si>
+    <t>ϑy</t>
+  </si>
+  <si>
+    <t>ϑz</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>PROP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -106,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -142,14 +183,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,249 +553,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7662DF1-C715-49DB-B57A-AA4CA6C1A83B}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
+      <c r="C4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5">
         <v>3</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
         <v>4</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7">
         <v>5</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
         <v>6</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
         <v>7</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7</v>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7</v>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
         <v>8</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8</v>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8</v>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>8</v>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>8</v>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8</v>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -735,23 +840,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0AEB2F-FBF5-4B25-A985-03D41A1E807E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="A14" sqref="A14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -778,10 +883,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -789,10 +894,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -800,73 +905,194 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -900,26 +1126,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ADB904-29E7-468C-9044-A9315EE87C4A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -929,8 +1164,17 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -940,17 +1184,20 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
+      <c r="D3" s="1">
+        <v>1320</v>
+      </c>
+      <c r="E3" s="1">
+        <v>101</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,23 +1209,23 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,83 +1305,221 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88FFCBC-CADB-4BE8-A2F4-8F5C5886CB8B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean7\Documents\2025-a\Analisis Matricial Estructuras\Calculadora-Cerchas-Corregido\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\PycharmProjects\CalculadoraCerchasFinal\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0FACBD-D424-4545-985D-293459857FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABDC6BF-140A-4CDF-A5AB-0A6A1F24B0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="5" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementos" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>DIM</t>
   </si>
@@ -64,15 +64,6 @@
     <t>A (cm^2)</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>NODO</t>
   </si>
   <si>
@@ -109,14 +100,38 @@
     <t>v</t>
   </si>
   <si>
-    <t>PROP</t>
+    <t>etype</t>
+  </si>
+  <si>
+    <t>Fx</t>
+  </si>
+  <si>
+    <t>Fy</t>
+  </si>
+  <si>
+    <t>Fz</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>Mz</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,14 +145,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -194,31 +201,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,14 +549,14 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -577,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,225 +581,105 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -843,7 +716,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,29 +737,29 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -894,150 +767,78 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1126,35 +927,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ADB904-29E7-468C-9044-A9315EE87C4A}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1165,16 +972,23 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>1.91</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>1.91</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1185,16 +999,23 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>1320</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>101</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1206,31 +1027,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED023E19-6C40-4444-B782-2C29E3B94B11}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1239,63 +1069,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-10</v>
+        <v>-100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1305,221 +1088,82 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88FFCBC-CADB-4BE8-A2F4-8F5C5886CB8B}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\PycharmProjects\CalculadoraCerchasFinal\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABDC6BF-140A-4CDF-A5AB-0A6A1F24B0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBC5A3B-F0F0-43AB-951F-9AA79071C955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>DIM</t>
   </si>
@@ -67,9 +67,6 @@
     <t>NODO</t>
   </si>
   <si>
-    <t>E (GPA)</t>
-  </si>
-  <si>
     <t>PROPS</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>ϑz</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>etype</t>
   </si>
   <si>
@@ -124,7 +118,10 @@
     <t>Gamma</t>
   </si>
   <si>
-    <t>G</t>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>E (Mpa)</t>
   </si>
 </sst>
 </file>
@@ -211,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -716,7 +713,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +902,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +924,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ADB904-29E7-468C-9044-A9315EE87C4A}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -935,87 +932,76 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>10</v>
+      <c r="C2" s="2">
+        <v>400000</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="E2" s="1">
-        <v>30</v>
-      </c>
-      <c r="F2" s="5">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
+        <v>30000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>300000</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>10</v>
+      <c r="C3" s="2">
+        <v>400000</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="E3" s="1">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>300000</v>
+      </c>
+      <c r="G3" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
@@ -1030,7 +1016,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,22 +1026,22 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,22 +1087,22 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\PycharmProjects\CalculadoraCerchasFinal\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean7\Documents\2025-a\Analisis Matricial Estructuras\Calculadora-Cerchas-Corregido\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBC5A3B-F0F0-43AB-951F-9AA79071C955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DA1164-3A60-4186-A7C6-C5E2FE656A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="5" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementos" sheetId="3" r:id="rId1"/>
@@ -46,12 +46,6 @@
     <t>DIM</t>
   </si>
   <si>
-    <t>Conectiv_i</t>
-  </si>
-  <si>
-    <t>Conectiv_j</t>
-  </si>
-  <si>
     <t>X [m]</t>
   </si>
   <si>
@@ -122,6 +116,12 @@
   </si>
   <si>
     <t>E (Mpa)</t>
+  </si>
+  <si>
+    <t>Nodo inicial</t>
+  </si>
+  <si>
+    <t>Nodo final</t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,6 +198,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -208,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,30 +559,33 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F2" sqref="F2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
     </row>
@@ -577,10 +593,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
     </row>
@@ -588,15 +604,15 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -713,20 +729,20 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,33 +942,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ADB904-29E7-468C-9044-A9315EE87C4A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,7 +1013,7 @@
       <c r="F3" s="1">
         <v>300000</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="1">
         <v>90</v>
       </c>
     </row>
@@ -1023,25 +1039,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1076,33 +1092,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88FFCBC-CADB-4BE8-A2F4-8F5C5886CB8B}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean7\Documents\2025-a\Analisis Matricial Estructuras\Calculadora-Cerchas-Corregido\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DA1164-3A60-4186-A7C6-C5E2FE656A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232D5391-BACD-4278-BAE4-B393E0FF9692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="5" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementos" sheetId="3" r:id="rId1"/>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7662DF1-C715-49DB-B57A-AA4CA6C1A83B}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,10 +605,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D2" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1092,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88FFCBC-CADB-4BE8-A2F4-8F5C5886CB8B}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehy2\Documentos\EPN\Sep. Semestre\Instalaciones Hidrosanitarias en Edificios\Proyecto\Trabajo 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean7\Documents\2025-a\Analisis Matricial Estructuras\Calculadora-Cerchas-Corregido\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42CD4EF-9DE9-4210-A0AE-9A89EF02D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232D5391-BACD-4278-BAE4-B393E0FF9692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{7E256D8D-9C75-477B-8580-A8B7BA1AF2D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Elementos" sheetId="3" r:id="rId1"/>
@@ -215,22 +215,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +559,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,16 +594,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
@@ -732,7 +729,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,42 +746,48 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
+      <c r="B3" s="1">
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -915,7 +918,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +930,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +943,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1014,7 @@
         <v>300000</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,7 +1032,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1090,7 +1093,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1146,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -645,13 +645,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
+        <v>400000</v>
+      </c>
+      <c r="D2" t="n">
         <v>100000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>30000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>300000</v>
       </c>
       <c r="F2" t="n">
         <v>300000</v>
